--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99638.05810594468</v>
+        <v>117660.8807414798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13821896.73197679</v>
+        <v>14599253.49234761</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21591473.41753123</v>
+        <v>21479834.65339678</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3390569.988821112</v>
+        <v>3391125.514213049</v>
       </c>
     </row>
     <row r="11">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3.26500041075963</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4056,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.26500041075963</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.26500041075963</v>
       </c>
     </row>
   </sheetData>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>7.785150384466172</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>7.785150384466172</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>7.785150384466172</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.04084950698148</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.04084950698148</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.966337919519534</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.966337919519534</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3.966337919519534</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>7.487852894793885</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>11.15764218481663</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>11.15764218481663</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>11.15764218481663</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>11.52945126195086</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>7.785150384466172</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.04084950698148</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3.966337919519534</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>7.636127209542281</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>11.30591649956503</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>3.966337919519534</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>7.636127209542281</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>11.30591649956503</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>12.97967913563025</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>14.82743147483938</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>11.08313059735469</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>7.338829719869995</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.594528842385303</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.2965486294967876</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K11" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L11" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M11" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N11" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O11" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P11" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,28 +8768,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K12" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L12" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8848,22 +8850,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L13" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M13" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N13" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O13" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P13" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q13" t="n">
         <v>84.9458458910769</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K14" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L14" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M14" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N14" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O14" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P14" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9005,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K15" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L15" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9085,22 +9087,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L16" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M16" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N16" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O16" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P16" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q16" t="n">
         <v>84.9458458910769</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K17" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633311</v>
       </c>
       <c r="L17" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854624</v>
       </c>
       <c r="M17" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N17" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344888</v>
       </c>
       <c r="O17" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P17" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,28 +9242,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K18" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L18" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713924</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9322,22 +9324,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L19" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M19" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325951</v>
       </c>
       <c r="N19" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O19" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469147</v>
       </c>
       <c r="P19" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q19" t="n">
         <v>84.9458458910769</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K20" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L20" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M20" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N20" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O20" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P20" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,28 +9479,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K21" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L21" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9559,22 +9561,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L22" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M22" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N22" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O22" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P22" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q22" t="n">
         <v>84.9458458910769</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K23" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L23" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M23" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N23" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O23" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P23" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q23" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K24" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L24" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9796,22 +9798,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L25" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M25" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N25" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O25" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P25" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q25" t="n">
         <v>84.9458458910769</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K26" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L26" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M26" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N26" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O26" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P26" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9951,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K27" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L27" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10033,22 +10035,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L28" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M28" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N28" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O28" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P28" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K29" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L29" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M29" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N29" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O29" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P29" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q29" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K30" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L30" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10270,22 +10272,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L31" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M31" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N31" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O31" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P31" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K32" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L32" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M32" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N32" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O32" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P32" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q32" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10425,28 +10427,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K33" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L33" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10507,22 +10509,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L34" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M34" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N34" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O34" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P34" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q34" t="n">
         <v>84.9458458910769</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K35" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L35" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M35" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N35" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O35" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P35" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q35" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,28 +10664,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K36" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L36" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10744,22 +10746,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L37" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M37" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N37" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O37" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P37" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q37" t="n">
         <v>84.9458458910769</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K38" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L38" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M38" t="n">
-        <v>52.5007454507564</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N38" t="n">
-        <v>49.56367724059342</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O38" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P38" t="n">
-        <v>77.60002049629391</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q38" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K39" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L39" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -10981,22 +10983,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L40" t="n">
-        <v>58.45168301778619</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M40" t="n">
-        <v>58.95500830344885</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N40" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O40" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P40" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q40" t="n">
         <v>84.9458458910769</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>82.01270964108606</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K41" t="n">
-        <v>81.2743314685184</v>
+        <v>55.55872096633311</v>
       </c>
       <c r="L41" t="n">
-        <v>70.54245807633525</v>
+        <v>38.63996931854624</v>
       </c>
       <c r="M41" t="n">
-        <v>52.50074545075637</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N41" t="n">
-        <v>49.56367724059345</v>
+        <v>13.49162220344888</v>
       </c>
       <c r="O41" t="n">
-        <v>57.74591815338317</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P41" t="n">
-        <v>77.60002049629389</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.81009740783446</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,28 +11138,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>64.29014807201071</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K42" t="n">
-        <v>45.73988577757382</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L42" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>11.52036692897309</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>30.50273615440041</v>
+        <v>9.847858648713924</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.35930878861527</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11218,22 +11220,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>64.85774405223553</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L43" t="n">
-        <v>58.4516830177862</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M43" t="n">
-        <v>58.95500830344886</v>
+        <v>44.74013454325951</v>
       </c>
       <c r="N43" t="n">
-        <v>51.10446290764006</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O43" t="n">
-        <v>63.87433869480827</v>
+        <v>51.05679782469147</v>
       </c>
       <c r="P43" t="n">
-        <v>70.29982587808107</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q43" t="n">
         <v>84.9458458910769</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>82.01270964108606</v>
+        <v>60.38074145942262</v>
       </c>
       <c r="K44" t="n">
-        <v>81.2743314685184</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L44" t="n">
-        <v>70.54245807633525</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M44" t="n">
-        <v>52.5007454507564</v>
+        <v>3.635543595680913</v>
       </c>
       <c r="N44" t="n">
-        <v>49.56367724059342</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>57.74591815338317</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P44" t="n">
-        <v>77.60002049629391</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.81009740783446</v>
+        <v>69.27720916367376</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>64.29014807201071</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K45" t="n">
-        <v>45.73988577757382</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L45" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>11.5203669289731</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>30.50273615440041</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.35930878861527</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>64.85774405223553</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L46" t="n">
-        <v>58.45168301778619</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M46" t="n">
-        <v>58.95500830344885</v>
+        <v>41.66960690285086</v>
       </c>
       <c r="N46" t="n">
-        <v>51.10446290764006</v>
+        <v>34.31821051245969</v>
       </c>
       <c r="O46" t="n">
-        <v>63.87433869480827</v>
+        <v>48.65249232880267</v>
       </c>
       <c r="P46" t="n">
-        <v>70.29982587808107</v>
+        <v>55.79371869993704</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23270,13 +23272,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H11" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I11" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S11" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,13 +23351,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H12" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I12" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S12" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T12" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H13" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I13" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J13" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R13" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S13" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T13" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23507,13 +23509,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H14" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I14" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S14" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23586,13 +23588,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H15" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I15" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S15" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T15" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H16" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I16" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J16" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R16" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S16" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T16" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23744,13 +23746,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H17" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I17" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S17" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23823,13 +23825,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H18" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I18" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>33.71113089981824</v>
+        <v>26.9953780868618</v>
       </c>
       <c r="S18" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T18" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23902,16 +23904,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H19" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I19" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J19" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R19" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S19" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T19" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23981,13 +23983,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H20" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I20" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S20" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24060,13 +24062,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H21" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I21" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S21" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T21" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24139,16 +24141,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H22" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I22" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J22" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R22" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S22" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T22" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24218,13 +24220,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H23" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I23" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S23" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24297,13 +24299,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H24" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I24" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S24" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T24" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24376,16 +24378,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H25" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I25" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J25" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R25" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S25" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T25" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24455,13 +24457,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H26" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I26" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S26" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24534,13 +24536,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H27" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I27" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S27" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T27" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24613,16 +24615,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H28" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I28" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J28" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R28" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S28" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T28" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24692,13 +24694,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H29" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I29" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S29" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24771,13 +24773,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H30" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I30" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S30" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T30" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24850,16 +24852,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H31" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I31" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J31" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R31" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S31" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T31" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24929,13 +24931,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H32" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I32" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S32" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25008,13 +25010,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H33" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I33" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S33" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T33" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25087,16 +25089,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H34" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I34" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J34" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R34" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S34" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T34" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25166,13 +25168,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H35" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I35" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S35" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25245,13 +25247,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H36" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I36" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S36" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T36" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25324,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H37" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I37" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J37" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R37" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S37" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T37" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25403,13 +25405,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H38" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I38" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S38" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25482,13 +25484,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H39" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I39" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>33.71113089981824</v>
+        <v>26.99537808686179</v>
       </c>
       <c r="S39" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T39" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25561,16 +25563,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H40" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I40" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J40" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.34739200526494</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R40" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S40" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T40" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25640,13 +25642,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.1760772090881</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H41" t="n">
-        <v>321.6393596860628</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I41" t="n">
-        <v>141.5242915123168</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.56003921470423</v>
+        <v>28.86105653370704</v>
       </c>
       <c r="S41" t="n">
-        <v>167.8816475394799</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7583856958329</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25719,13 +25721,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H42" t="n">
-        <v>94.97573514563526</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I42" t="n">
-        <v>53.57151499766643</v>
+        <v>49.84739380653136</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>33.71113089981824</v>
+        <v>26.9953780868618</v>
       </c>
       <c r="S42" t="n">
-        <v>143.6501389339988</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T42" t="n">
-        <v>185.1444101568237</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25798,16 +25800,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H43" t="n">
-        <v>154.7205238866194</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I43" t="n">
-        <v>132.4162590767394</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J43" t="n">
-        <v>35.13648522191968</v>
+        <v>28.72524163130364</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.347392005264936</v>
+        <v>1.753980058091948</v>
       </c>
       <c r="R43" t="n">
-        <v>132.5594663469447</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S43" t="n">
-        <v>205.5778357386506</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T43" t="n">
-        <v>229.3773828810129</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>386.8381037120793</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25871,19 +25873,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>387.1310048262444</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.1760772090881</v>
+        <v>407.1706720739929</v>
       </c>
       <c r="H44" t="n">
-        <v>321.6393596860628</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I44" t="n">
-        <v>141.5242915123168</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>41.56003921470423</v>
+        <v>22.80641949262572</v>
       </c>
       <c r="S44" t="n">
-        <v>167.8816475394799</v>
+        <v>157.371643838014</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7583856958329</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25944,25 +25946,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>156.8216356206952</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>133.7433927709802</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>141.8508719749876</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>129.6400022009146</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0309036367328</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H45" t="n">
-        <v>94.97573514563526</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I45" t="n">
-        <v>53.57151499766643</v>
+        <v>48.07180258983779</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>33.71113089981824</v>
+        <v>23.79343295775171</v>
       </c>
       <c r="S45" t="n">
-        <v>143.6501389339988</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T45" t="n">
-        <v>185.1444101568237</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8865599014431</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H46" t="n">
-        <v>154.7205238866194</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I46" t="n">
-        <v>132.4162590767394</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J46" t="n">
-        <v>35.13648522191968</v>
+        <v>25.66848079476623</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.34739200526494</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>132.5594663469447</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S46" t="n">
-        <v>205.5778357386506</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T46" t="n">
-        <v>229.3773828810129</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2995739570064</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>254.4210935284518</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>279.587979599065</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>225.2330815948681</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>216.549806808886</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>292657.745347115</v>
+        <v>292497.9318708659</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>292657.745347115</v>
+        <v>295861.2483128028</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58984.23713769191</v>
+        <v>58984.23713769192</v>
       </c>
       <c r="C2" t="n">
         <v>58984.23713769192</v>
       </c>
       <c r="D2" t="n">
-        <v>58984.2371376919</v>
+        <v>58984.23713769192</v>
       </c>
       <c r="E2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786554</v>
       </c>
       <c r="F2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786555</v>
       </c>
       <c r="G2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786557</v>
       </c>
       <c r="H2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786556</v>
       </c>
       <c r="I2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786555</v>
       </c>
       <c r="J2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786555</v>
       </c>
       <c r="K2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786556</v>
       </c>
       <c r="L2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786556</v>
       </c>
       <c r="M2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786555</v>
       </c>
       <c r="N2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786556</v>
       </c>
       <c r="O2" t="n">
-        <v>63193.58660141716</v>
+        <v>64303.24794786557</v>
       </c>
       <c r="P2" t="n">
-        <v>63193.58660141716</v>
+        <v>65500.35112795786</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>153256.1769135622</v>
+        <v>193657.3023347187</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>16834.1456323114</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>36297.99208473349</v>
       </c>
       <c r="C4" t="n">
-        <v>36297.99208473348</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="D4" t="n">
         <v>36297.99208473349</v>
       </c>
       <c r="E4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="F4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="G4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="H4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="I4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="J4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="K4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="L4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="M4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="N4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="O4" t="n">
-        <v>15578.17332551681</v>
+        <v>10552.92163791708</v>
       </c>
       <c r="P4" t="n">
-        <v>15578.17332551681</v>
+        <v>8670.615466866604</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="F5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="G5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="H5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="I5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="J5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="K5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="L5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="M5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="N5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="O5" t="n">
-        <v>4158.541425306673</v>
+        <v>5254.808845494562</v>
       </c>
       <c r="P5" t="n">
-        <v>4158.541425306673</v>
+        <v>6002.865572515368</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10941.35494704157</v>
+        <v>-10941.35494704156</v>
       </c>
       <c r="C6" t="n">
         <v>-10941.35494704156</v>
       </c>
       <c r="D6" t="n">
-        <v>-10941.35494704158</v>
+        <v>-10941.35494704156</v>
       </c>
       <c r="E6" t="n">
-        <v>-109799.3050629685</v>
+        <v>-145161.7848702648</v>
       </c>
       <c r="F6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445391</v>
       </c>
       <c r="G6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445393</v>
       </c>
       <c r="H6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445392</v>
       </c>
       <c r="I6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445391</v>
       </c>
       <c r="J6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445391</v>
       </c>
       <c r="K6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445392</v>
       </c>
       <c r="L6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445392</v>
       </c>
       <c r="M6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445391</v>
       </c>
       <c r="N6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445392</v>
       </c>
       <c r="O6" t="n">
-        <v>43456.87185059368</v>
+        <v>48495.51746445393</v>
       </c>
       <c r="P6" t="n">
-        <v>43456.87185059368</v>
+        <v>33992.72445626449</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="F3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="G3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="H3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="I3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="J3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="K3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="L3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="M3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="N3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="O3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="P3" t="n">
-        <v>190.7587809773703</v>
+        <v>265.0224134907252</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>190.7587809773703</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.97613617446089</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H11" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I11" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J11" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K11" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L11" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M11" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N11" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O11" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P11" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R11" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S11" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T11" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H12" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I12" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J12" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K12" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L12" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N12" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R12" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S12" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T12" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I13" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J13" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K13" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L13" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M13" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N13" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O13" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P13" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R13" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S13" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T13" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H14" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I14" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J14" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K14" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L14" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M14" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N14" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O14" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P14" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R14" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S14" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T14" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H15" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I15" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J15" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K15" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L15" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N15" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R15" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S15" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T15" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I16" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J16" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K16" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L16" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M16" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N16" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O16" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P16" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R16" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S16" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T16" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H17" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I17" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J17" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K17" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L17" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445684</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N17" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O17" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P17" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R17" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539815</v>
       </c>
       <c r="S17" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T17" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543166</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783797</v>
       </c>
       <c r="H18" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I18" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J18" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K18" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L18" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N18" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O18" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>78.35146986974291</v>
+        <v>99.0063473754294</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R18" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914187</v>
       </c>
       <c r="S18" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T18" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I19" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J19" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K19" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L19" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M19" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416958</v>
       </c>
       <c r="N19" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O19" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P19" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R19" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S19" t="n">
-        <v>5.994829231698667</v>
+        <v>7.57517563303735</v>
       </c>
       <c r="T19" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H20" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I20" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J20" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K20" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L20" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M20" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N20" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O20" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P20" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q20" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R20" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S20" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T20" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H21" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I21" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J21" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K21" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L21" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N21" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R21" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S21" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T21" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I22" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J22" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K22" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L22" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M22" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N22" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O22" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P22" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R22" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S22" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T22" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H23" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I23" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J23" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K23" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L23" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M23" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N23" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O23" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P23" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q23" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R23" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S23" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T23" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H24" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I24" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J24" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K24" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L24" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N24" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R24" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S24" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T24" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I25" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J25" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K25" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L25" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M25" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N25" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O25" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P25" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R25" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S25" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T25" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H26" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I26" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J26" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K26" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L26" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M26" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N26" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O26" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P26" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q26" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R26" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S26" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T26" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H27" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I27" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J27" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K27" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L27" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R27" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S27" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T27" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I28" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J28" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K28" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L28" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M28" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N28" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O28" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P28" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R28" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S28" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T28" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H29" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I29" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J29" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K29" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L29" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M29" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N29" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O29" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P29" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q29" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R29" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S29" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T29" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H30" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I30" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J30" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K30" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L30" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N30" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O30" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R30" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S30" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T30" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H31" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I31" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J31" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K31" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L31" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M31" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N31" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O31" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P31" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R31" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S31" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T31" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H32" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I32" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J32" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K32" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L32" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M32" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N32" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O32" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P32" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q32" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R32" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S32" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T32" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H33" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I33" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J33" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K33" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L33" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R33" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S33" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T33" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I34" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J34" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K34" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L34" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M34" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N34" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O34" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P34" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R34" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S34" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T34" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H35" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I35" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J35" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K35" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L35" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M35" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N35" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O35" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P35" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q35" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R35" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S35" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T35" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H36" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I36" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J36" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K36" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L36" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R36" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S36" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T36" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I37" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J37" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K37" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L37" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M37" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N37" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O37" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P37" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R37" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S37" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T37" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H38" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I38" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J38" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K38" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L38" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M38" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N38" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O38" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P38" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q38" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R38" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S38" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T38" t="n">
-        <v>3.356971110466084</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H39" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I39" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J39" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K39" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L39" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N39" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>78.35146986974291</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R39" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S39" t="n">
-        <v>7.621353183388327</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T39" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I40" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J40" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K40" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L40" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M40" t="n">
-        <v>53.92219115398025</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N40" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O40" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P40" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.80457592758291</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R40" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S40" t="n">
-        <v>5.994829231698667</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T40" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H41" t="n">
-        <v>7.853701972600975</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I41" t="n">
-        <v>29.56473529097515</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J41" t="n">
-        <v>65.08708778684657</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K41" t="n">
-        <v>97.54867250552832</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L41" t="n">
-        <v>121.0177540867794</v>
+        <v>152.9202428445684</v>
       </c>
       <c r="M41" t="n">
-        <v>134.6555690464027</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N41" t="n">
-        <v>136.8344369316367</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O41" t="n">
-        <v>129.2088786267373</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P41" t="n">
-        <v>110.2767885548626</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q41" t="n">
-        <v>82.81327561515576</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R41" t="n">
-        <v>48.17186442440096</v>
+        <v>60.87084710539815</v>
       </c>
       <c r="S41" t="n">
-        <v>17.47503807646966</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T41" t="n">
-        <v>3.356971110466083</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06134955770126475</v>
+        <v>0.07752242084543166</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4103113402154758</v>
+        <v>0.5184768983783797</v>
       </c>
       <c r="H42" t="n">
-        <v>3.962743733133674</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I42" t="n">
-        <v>14.12694745917318</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J42" t="n">
-        <v>38.76542359465599</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K42" t="n">
-        <v>66.25628338909286</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L42" t="n">
-        <v>89.08974954985582</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O42" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>78.35146986974291</v>
+        <v>99.0063473754294</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.37588265627722</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R42" t="n">
-        <v>25.47529531618542</v>
+        <v>32.19104812914187</v>
       </c>
       <c r="S42" t="n">
-        <v>7.621353183388328</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T42" t="n">
-        <v>1.653842638850974</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H43" t="n">
-        <v>3.05839488189948</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I43" t="n">
-        <v>10.34475487660887</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J43" t="n">
-        <v>24.32018097804932</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K43" t="n">
-        <v>39.96552821132445</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L43" t="n">
-        <v>51.1421164607199</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M43" t="n">
-        <v>53.92219115398024</v>
+        <v>68.13706491416958</v>
       </c>
       <c r="N43" t="n">
-        <v>52.6400419703619</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O43" t="n">
-        <v>48.621598797314</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P43" t="n">
-        <v>41.60417741185136</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.80457592758292</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R43" t="n">
-        <v>15.46709722482087</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S43" t="n">
-        <v>5.994829231698668</v>
+        <v>7.57517563303735</v>
       </c>
       <c r="T43" t="n">
-        <v>1.469780771464984</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7668694712658096</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H44" t="n">
-        <v>7.853701972600975</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I44" t="n">
-        <v>29.56473529097515</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J44" t="n">
-        <v>65.08708778684657</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K44" t="n">
-        <v>97.54867250552832</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L44" t="n">
-        <v>121.0177540867794</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M44" t="n">
-        <v>134.6555690464027</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N44" t="n">
-        <v>136.8344369316367</v>
+        <v>190.10497204094</v>
       </c>
       <c r="O44" t="n">
-        <v>129.2088786267373</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P44" t="n">
-        <v>110.2767885548626</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.81327561515576</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R44" t="n">
-        <v>48.17186442440096</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S44" t="n">
-        <v>17.47503807646966</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T44" t="n">
-        <v>3.356971110466084</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06134955770126476</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4103113402154757</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H45" t="n">
-        <v>3.962743733133674</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I45" t="n">
-        <v>14.12694745917318</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J45" t="n">
-        <v>38.76542359465599</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K45" t="n">
-        <v>66.25628338909286</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L45" t="n">
-        <v>89.08974954985582</v>
+        <v>116.2822914398576</v>
       </c>
       <c r="M45" t="n">
-        <v>103.9635356326668</v>
+        <v>119.1907604303497</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>110.4219989364182</v>
       </c>
       <c r="O45" t="n">
-        <v>97.62350558188119</v>
+        <v>119.4165344447216</v>
       </c>
       <c r="P45" t="n">
-        <v>78.35146986974291</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.37588265627722</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R45" t="n">
-        <v>25.47529531618542</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S45" t="n">
-        <v>7.621353183388327</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T45" t="n">
-        <v>1.653842638850974</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05839488189948</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I46" t="n">
-        <v>10.34475487660887</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J46" t="n">
-        <v>24.32018097804932</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K46" t="n">
-        <v>39.96552821132445</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L46" t="n">
-        <v>51.1421164607199</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M46" t="n">
-        <v>53.92219115398025</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N46" t="n">
-        <v>52.6400419703619</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O46" t="n">
-        <v>48.621598797314</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P46" t="n">
-        <v>41.60417741185136</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.80457592758291</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R46" t="n">
-        <v>15.46709722482087</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S46" t="n">
-        <v>5.994829231698667</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T46" t="n">
-        <v>1.469780771464984</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.557085833610456</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>3.557085833610456</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,19 +38183,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.706857868709845</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.69066932935881</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.866416504251646</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
